--- a/Codigo Fuente/Bancos_AdministradorPDF/Docs/Formatos/Doc/Formato.xlsx
+++ b/Codigo Fuente/Bancos_AdministradorPDF/Docs/Formatos/Doc/Formato.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDC9AE6-1D7D-4009-9D71-B66D3573C373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -183,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -445,18 +446,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:D59" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D59" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" name="Linea" dataDxfId="3"/>
-    <tableColumn id="1" name="Campo" dataDxfId="2"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="1"/>
-    <tableColumn id="3" name="Tabla" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Linea" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Campo" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tabla" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -505,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,9 +542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,6 +594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -748,23 +786,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="33.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="9.26953125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.1796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,7 +816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -792,7 +830,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -806,7 +844,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -820,7 +858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -834,7 +872,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -848,7 +886,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -862,7 +900,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -876,7 +914,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -890,7 +928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -904,7 +942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -918,7 +956,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -932,7 +970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -946,7 +984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -960,7 +998,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="10">
         <v>14</v>
       </c>
@@ -974,7 +1012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -988,7 +1026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="10">
         <v>16</v>
       </c>
@@ -1002,7 +1040,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -1016,7 +1054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="10">
         <v>18</v>
       </c>
@@ -1030,7 +1068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -1044,7 +1082,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -1058,7 +1096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -1072,7 +1110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="10">
         <v>22</v>
       </c>
@@ -1086,7 +1124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="11">
         <v>23</v>
       </c>
@@ -1100,7 +1138,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="10">
         <v>24</v>
       </c>
@@ -1114,7 +1152,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="15">
         <v>25</v>
       </c>
@@ -1128,7 +1166,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="28">
         <v>26</v>
       </c>
@@ -1142,7 +1180,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="15">
         <v>27</v>
       </c>
@@ -1156,7 +1194,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="28">
         <v>28</v>
       </c>
@@ -1170,7 +1208,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="15">
         <v>29</v>
       </c>
@@ -1184,7 +1222,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="28">
         <v>30</v>
       </c>
@@ -1198,7 +1236,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="15">
         <v>31</v>
       </c>
@@ -1212,7 +1250,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="28">
         <v>32</v>
       </c>
@@ -1226,7 +1264,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>33</v>
       </c>
@@ -1240,7 +1278,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="28">
         <v>34</v>
       </c>
@@ -1254,7 +1292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="15">
         <v>35</v>
       </c>
@@ -1268,7 +1306,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="28">
         <v>36</v>
       </c>
@@ -1282,7 +1320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="15">
         <v>37</v>
       </c>
@@ -1296,7 +1334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="28">
         <v>38</v>
       </c>
@@ -1310,7 +1348,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="15">
         <v>39</v>
       </c>
@@ -1324,7 +1362,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="28">
         <v>40</v>
       </c>
@@ -1338,7 +1376,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="15">
         <v>41</v>
       </c>
@@ -1352,7 +1390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="24">
         <v>42</v>
       </c>
@@ -1366,7 +1404,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="27">
         <v>43</v>
       </c>
@@ -1380,7 +1418,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="24">
         <v>44</v>
       </c>
@@ -1394,7 +1432,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="27">
         <v>45</v>
       </c>
@@ -1408,7 +1446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="24">
         <v>46</v>
       </c>
@@ -1422,7 +1460,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="27">
         <v>47</v>
       </c>
@@ -1436,7 +1474,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="24">
         <v>48</v>
       </c>
@@ -1450,7 +1488,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="27">
         <v>49</v>
       </c>
@@ -1464,7 +1502,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="24">
         <v>50</v>
       </c>
@@ -1478,7 +1516,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="27">
         <v>51</v>
       </c>
@@ -1492,7 +1530,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="24">
         <v>52</v>
       </c>
@@ -1506,7 +1544,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="27">
         <v>53</v>
       </c>
@@ -1520,7 +1558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="24">
         <v>54</v>
       </c>
@@ -1534,7 +1572,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="27">
         <v>55</v>
       </c>
@@ -1548,7 +1586,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="24">
         <v>56</v>
       </c>
@@ -1562,7 +1600,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="27">
         <v>57</v>
       </c>
@@ -1576,7 +1614,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="24">
         <v>58</v>
       </c>
@@ -1600,24 +1638,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
